--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5134804-B8F7-4C3C-9437-C0C50272EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C1B2C1-5937-45A9-8281-23AE1EDD27EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="279">
   <si>
     <t>Company Info:</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Current Price:</t>
   </si>
   <si>
+    <t>HKD</t>
+  </si>
+  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -995,34 +998,31 @@
   </si>
   <si>
     <t>0345.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>維他奶國際</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>C0002</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>維他奶國際</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier 1</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>Strongly disagree</t>
-  </si>
-  <si>
-    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1237,13 +1237,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1705,7 +1698,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2425,9 +2418,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2842,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2856,28 +2846,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="300" t="s">
-        <v>272</v>
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="186">
         <v>45644</v>
@@ -2885,7 +2875,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="138" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="187">
         <v>8</v>
@@ -2893,24 +2883,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" s="262"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="138" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="138" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" s="190">
         <v>1071750016</v>
@@ -2918,15 +2908,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="138" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="214">
         <v>45382</v>
@@ -2934,7 +2924,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="215">
         <v>1000</v>
@@ -2942,7 +2932,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="213" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" s="214">
         <v>45382</v>
@@ -2950,27 +2940,27 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="213" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="217" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
         <v>274</v>
@@ -2979,43 +2969,43 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="235" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="235" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="236" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="219" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="221" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
         <v>277</v>
@@ -3024,7 +3014,7 @@
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3073,7 +3063,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="147">
         <v>6217123</v>
@@ -3099,7 +3089,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" s="148">
         <v>3102284</v>
@@ -3125,7 +3115,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="148">
         <v>2918521</v>
@@ -3151,7 +3141,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" s="148"/>
       <c r="D28" s="148"/>
@@ -3167,7 +3157,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C29" s="148">
         <v>30028</v>
@@ -3193,7 +3183,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="148">
         <v>1421</v>
@@ -3219,7 +3209,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C31" s="148">
         <v>75275</v>
@@ -3245,7 +3235,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="148">
         <v>522974</v>
@@ -3271,7 +3261,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="148">
         <v>146298</v>
@@ -3297,7 +3287,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="96" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C34" s="212"/>
       <c r="D34" s="148"/>
@@ -3313,7 +3303,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C35" s="212"/>
       <c r="D35" s="148"/>
@@ -3329,7 +3319,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C36" s="212"/>
       <c r="D36" s="148"/>
@@ -3345,7 +3335,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="148">
         <v>2524058</v>
@@ -3371,7 +3361,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="93" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C38" s="148"/>
       <c r="D38" s="148"/>
@@ -3387,7 +3377,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="212"/>
       <c r="D39" s="148"/>
@@ -3403,7 +3393,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="212"/>
       <c r="D40" s="148"/>
@@ -3419,7 +3409,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" s="148">
         <v>3112637</v>
@@ -3445,7 +3435,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="148">
         <v>108077</v>
@@ -3471,7 +3461,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="212"/>
       <c r="D43" s="148"/>
@@ -3487,7 +3477,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C44" s="245">
         <v>1.2962910933140588E-2</v>
@@ -3505,11 +3495,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.2229161257679801E-3</v>
+        <v>1.220613082216628E-3</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3558,18 +3548,18 @@
         <v>Balance Sheet- Error</v>
       </c>
       <c r="C47" s="191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" s="191" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E47" s="110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -3579,7 +3569,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3589,7 +3579,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3600,7 +3590,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -3610,7 +3600,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -3620,7 +3610,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3631,7 +3621,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3641,7 +3631,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -3652,7 +3642,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -3660,24 +3650,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -3688,7 +3678,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="118"/>
       <c r="D59" s="192">
@@ -3699,7 +3689,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -3710,7 +3700,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -3721,7 +3711,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -3732,7 +3722,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3743,7 +3733,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3753,43 +3743,43 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.3</v>
       </c>
       <c r="E66" s="216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <v>0.2</v>
       </c>
       <c r="E67" s="216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3800,7 +3790,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -3811,7 +3801,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -3821,7 +3811,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -3832,7 +3822,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="241" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" s="242"/>
       <c r="D72" s="243">
@@ -3842,85 +3832,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C86" s="194">
         <v>5</v>
@@ -3928,10 +3918,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D87" s="264">
         <v>0.03</v>
@@ -3939,7 +3929,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" s="284">
         <f>C24</f>
@@ -3947,10 +3937,10 @@
       </c>
       <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
         <v>191</v>
-      </c>
-      <c r="F89" s="88" t="s">
-        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3960,19 +3950,19 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="C90" s="285" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F90" s="250" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3990,7 +3980,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4011,7 +4001,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4032,7 +4022,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4050,7 +4040,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4069,7 +4059,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4086,7 +4076,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4104,7 +4094,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C98" s="232">
         <f>C44</f>
@@ -4198,8 +4188,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4240,7 +4230,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
@@ -4252,15 +4242,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>10.6</v>
+        <v>10.62</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
@@ -4269,7 +4259,7 @@
       <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="296">
         <f>Inputs!C10</f>
@@ -4280,7 +4270,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="294">
         <f>Inputs!C6</f>
@@ -4289,11 +4279,11 @@
       <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>11360.550169600001</v>
+        <v>11381.985169920001</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4301,7 +4291,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="182">
         <f>Inputs!C7</f>
@@ -4316,7 +4306,7 @@
         <v>45382</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
@@ -4327,7 +4317,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
@@ -4339,7 +4329,7 @@
       </c>
       <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="131">
         <v>1</v>
@@ -4352,40 +4342,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="137" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F9" s="141" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
@@ -4398,29 +4388,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="169">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="120" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="170">
         <v>0.16</v>
@@ -4430,12 +4420,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
@@ -4445,29 +4435,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" s="133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="86"/>
       <c r="E19" s="86"/>
       <c r="F19" s="140" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19" s="86"/>
       <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="270" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" s="271">
         <f>C21*C22*C23</f>
         <v>6.4709419460198273E-2</v>
       </c>
       <c r="F20" s="86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" s="169">
         <v>0.15</v>
@@ -4475,7 +4465,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C21" s="283">
         <f>Data!C13</f>
@@ -4486,58 +4476,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="273" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.1029731074681175</v>
       </c>
       <c r="F22" s="140" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="275" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C23" s="282">
         <f>1/Data!C53</f>
         <v>1.8760467422850602</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.6498153075993121</v>
+        <v>3.6567017515759144</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="280" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>4.8298867498680663E-3</v>
       </c>
       <c r="F24" s="138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>92.140086455008856</v>
+        <v>92.313935674735291</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="138" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
@@ -4546,61 +4536,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="139" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.2229161257679801E-3</v>
+        <v>1.220613082216628E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G28" s="286" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.59938515403904391</v>
+        <v>0</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>1.2181738742649419</v>
+        <v>0</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.70515900475181637</v>
+        <v>0</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>1.0592816297956018</v>
+        <v>0</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -4608,21 +4598,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
@@ -4632,7 +4622,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -4643,14 +4633,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="193" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
@@ -4660,7 +4650,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
@@ -4670,14 +4660,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="193" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
@@ -4687,7 +4677,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
@@ -4702,14 +4692,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="221" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
@@ -5663,10 +5653,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8:H8"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5688,21 +5678,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="146" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F2" s="117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G2" s="146" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H2" s="145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="86"/>
@@ -5713,14 +5703,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" s="84" t="str">
         <f>H14</f>
@@ -5742,7 +5732,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="126">
         <f>Inputs!C13</f>
@@ -5753,7 +5743,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="144" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5764,7 +5754,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5814,7 +5804,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -5865,7 +5855,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -5916,7 +5906,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -5967,7 +5957,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6018,7 +6008,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6069,7 +6059,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6120,7 +6110,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6171,7 +6161,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="223" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6222,7 +6212,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="223" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6273,7 +6263,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="226" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6324,7 +6314,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -6375,7 +6365,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6426,7 +6416,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -6477,7 +6467,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -6528,7 +6518,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6579,7 +6569,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -6630,7 +6620,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -6681,7 +6671,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -6732,7 +6722,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -6783,7 +6773,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="229" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6834,7 +6824,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6885,7 +6875,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
@@ -6936,7 +6926,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
@@ -6987,7 +6977,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7038,7 +7028,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="93" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
@@ -7089,7 +7079,7 @@
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7140,7 +7130,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7191,7 +7181,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="77">
         <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
@@ -7242,7 +7232,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
@@ -7293,7 +7283,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
@@ -7344,7 +7334,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
@@ -7395,7 +7385,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7446,7 +7436,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="97" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
@@ -7497,7 +7487,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7515,7 +7505,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
@@ -7566,7 +7556,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7617,7 +7607,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -7668,7 +7658,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="93" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -7719,7 +7709,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
@@ -7770,7 +7760,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -7821,7 +7811,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="93" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
@@ -7872,10 +7862,10 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C47" s="276" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7892,7 +7882,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="266" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
@@ -7943,7 +7933,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="93" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
@@ -7994,7 +7984,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
@@ -8045,7 +8035,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
@@ -8096,7 +8086,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8113,7 +8103,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
@@ -8163,7 +8153,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
@@ -8213,7 +8203,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8263,7 +8253,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" s="151">
         <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
@@ -8313,7 +8303,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
@@ -8363,7 +8353,7 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="266" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
@@ -8413,7 +8403,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="266" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
@@ -9752,7 +9742,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9770,7 +9760,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -9780,12 +9770,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="202">
@@ -9799,7 +9789,7 @@
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="278">
         <f>D3-D4</f>
@@ -9809,7 +9799,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="196">
@@ -9827,10 +9817,10 @@
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9846,16 +9836,16 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-2918519.0889994111</v>
+        <v>-2919263.3552050702</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.9376355447163967</v>
+        <v>1.937874655864166</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -9879,7 +9869,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -9897,7 +9887,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="200">
@@ -9916,32 +9906,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -9958,7 +9948,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -9969,7 +9959,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9986,7 +9976,7 @@
       <c r="F12" s="111"/>
       <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -9997,7 +9987,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10014,7 +10004,7 @@
       <c r="F13" s="111"/>
       <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10025,7 +10015,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10042,7 +10032,7 @@
       <c r="F14" s="111"/>
       <c r="G14" s="86"/>
       <c r="H14" s="85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="201">
         <f>Inputs!C76</f>
@@ -10053,7 +10043,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10070,7 +10060,7 @@
       <c r="F15" s="111"/>
       <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
@@ -10080,7 +10070,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10102,7 +10092,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10124,7 +10114,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10145,7 +10135,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10170,7 +10160,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10197,7 +10187,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10218,7 +10208,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10235,7 +10225,7 @@
       <c r="F22" s="111"/>
       <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10247,13 +10237,13 @@
       <c r="D23" s="86"/>
       <c r="E23" s="86"/>
       <c r="F23" s="110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10275,7 +10265,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10295,7 +10285,7 @@
       </c>
       <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10304,7 +10294,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10324,7 +10314,7 @@
       </c>
       <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10337,7 +10327,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10357,7 +10347,7 @@
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10370,7 +10360,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10387,7 +10377,7 @@
       <c r="F28" s="111"/>
       <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="202">
         <f>Inputs!C77</f>
@@ -10403,7 +10393,7 @@
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
       <c r="F29" s="111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
@@ -10412,7 +10402,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10428,7 +10418,7 @@
       <c r="F30" s="111"/>
       <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10438,7 +10428,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10455,7 +10445,7 @@
       <c r="F31" s="111"/>
       <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10465,7 +10455,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10482,7 +10472,7 @@
       <c r="F32" s="111"/>
       <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10492,7 +10482,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10512,7 +10502,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I33" s="201">
         <f>Inputs!C81</f>
@@ -10522,7 +10512,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -10539,7 +10529,7 @@
       <c r="F34" s="111"/>
       <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
@@ -10549,7 +10539,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -10575,7 +10565,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -10602,7 +10592,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -10629,7 +10619,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10650,7 +10640,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -10671,7 +10661,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -10692,7 +10682,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -10713,7 +10703,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -10730,7 +10720,7 @@
       <c r="F42" s="111"/>
       <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10748,7 +10738,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10767,7 +10757,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10786,7 +10776,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10803,7 +10793,7 @@
       <c r="F46" s="86"/>
       <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10816,7 +10806,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10833,7 +10823,7 @@
       <c r="F47" s="86"/>
       <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10846,7 +10836,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
@@ -10863,7 +10853,7 @@
       <c r="F48" s="86"/>
       <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48" s="277">
         <f>I49-I28</f>
@@ -10873,7 +10863,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="61">
         <f>Inputs!C41+Inputs!C37</f>
@@ -10890,7 +10880,7 @@
       <c r="F49" s="86"/>
       <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
@@ -10906,14 +10896,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
@@ -10925,12 +10915,12 @@
       <c r="G52" s="86"/>
       <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" s="87">
         <f>MAX(D4,0)</f>
@@ -10938,11 +10928,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.6498153075993121</v>
+        <v>3.6567017515759144</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>394461.08899941086</v>
+        <v>395205.35520507011</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10960,7 +10950,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="123"/>
@@ -10971,7 +10961,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" s="86"/>
       <c r="D56" s="297">
@@ -10986,7 +10976,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C57" s="86"/>
       <c r="D57" s="296">
@@ -10997,12 +10987,12 @@
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="86"/>
       <c r="D58" s="296">
@@ -11026,11 +11016,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60" s="86"/>
       <c r="F60" s="9"/>
@@ -11040,7 +11030,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11061,7 +11051,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="115">
         <f>C11+C30</f>
@@ -11082,7 +11072,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11103,7 +11093,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="119" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C64" s="203"/>
       <c r="D64" s="203"/>
@@ -11118,7 +11108,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11149,11 +11139,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="86"/>
@@ -11163,7 +11153,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11184,7 +11174,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="119" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" s="203"/>
       <c r="D69" s="203"/>
@@ -11199,7 +11189,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11221,7 +11211,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C72" s="284">
         <f>Data!C5</f>
@@ -11229,15 +11219,15 @@
       </c>
       <c r="D72" s="284"/>
       <c r="E72" s="298" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F72" s="298"/>
       <c r="H72" s="298" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11246,22 +11236,22 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="C73" s="285" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D73" s="285"/>
       <c r="E73" s="299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F73" s="285"/>
       <c r="H73" s="299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11282,7 +11272,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11312,7 +11302,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" s="158">
         <f>C74-C75</f>
@@ -11333,7 +11323,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11363,7 +11353,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11393,7 +11383,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="251" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" s="252">
         <f>C76-C77-C78</f>
@@ -11424,7 +11414,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11451,12 +11441,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="178" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11486,7 +11476,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11516,7 +11506,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
@@ -11546,7 +11536,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C84" s="206"/>
       <c r="D84" s="156">
@@ -11567,7 +11557,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="258" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85" s="252">
         <f>C83*(1-I84)</f>
@@ -11598,7 +11588,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11619,28 +11609,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.89838297248234E-2</v>
+        <v>-1.8948078633062904E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0853039523555154E-2</v>
+        <v>1.0832600654395917E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0853039523555154E-2</v>
+        <v>1.0832600654395917E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C88" s="166">
         <f>Inputs!C44</f>
@@ -11670,21 +11660,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2229161257679801E-3</v>
+        <v>1.220613082216628E-3</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2229161257679801E-3</v>
+        <v>1.220613082216628E-3</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2229161257679801E-3</v>
+        <v>1.220613082216628E-3</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11701,27 +11691,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E92" s="298" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F92" s="298"/>
       <c r="G92" s="86"/>
       <c r="H92" s="298" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I92" s="298"/>
       <c r="K92" s="24"/>
@@ -11740,24 +11730,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1586132056225464</v>
+        <v>2.1583949848375283</v>
       </c>
       <c r="H93" s="86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1586132056225464</v>
+        <v>2.1583949848375283</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94" s="179">
         <f>Dashboard!G20</f>
@@ -11768,18 +11758,18 @@
         <v>0.03</v>
       </c>
       <c r="E94" s="86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.2318643164066525</v>
+        <v>0.23186164971198592</v>
       </c>
       <c r="H94" s="86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.2318643164066525</v>
+        <v>0.23186164971198592</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11798,114 +11788,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="122" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1150215.2636247142</v>
+        <v>1150098.9848596652</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.0732122663431938</v>
+        <v>1.0731037720457242</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.0732122663431938</v>
+        <v>1.0731037720457242</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.4273348913869792</v>
+        <v>1.4271905977545347</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-394461.08899941086</v>
+        <v>-395205.35520507011</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.36805326159137736</v>
+        <v>-0.36874770170758753</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-2524058</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-2.7083430433090845</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-2.355080907225291</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>755754.17462530336</v>
+        <v>-1769164.3703454048</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.59938515403904391</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.70515900475181637</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>0.70515900475181637</v>
+        <v>0</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0.70515900475181648</v>
+        <v>0</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>1.0592816297956018</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11915,58 +11905,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="122" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>123548.70947985661</v>
+        <v>123547.28853380616</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.7985912283744828E-2</v>
+        <v>9.7984785337978705E-2</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.11527754386322921</v>
+        <v>0.11527621804468083</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>0.11527754386322921</v>
+        <v>0.11527621804468083</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.11527754386322921</v>
+        <v>0.11527621804468083</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.15331511361682779</v>
+        <v>0.15331335032438967</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11976,58 +11966,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="122" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>439651.44205257995</v>
+        <v>61773.64426690308</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.34868553316139439</v>
+        <v>4.8992392668989353E-2</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.41021827430752278</v>
+        <v>5.7638109022340414E-2</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.41021827430752278</v>
+        <v>5.7638109022340414E-2</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.41021827430752283</v>
+        <v>5.7638109022340414E-2</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.60629837170621481</v>
+        <v>7.6656675162194834E-2</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12036,7 +12026,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{165B237C-54F4-425F-96D9-5DA2F46D85BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6BF0E3-FDBD-4E52-90A8-BCB674E722D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2440413563474654E-3</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.38</v>
+        <v>10.42</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>11124.76516608</v>
+        <v>11167.63516672</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4676,7 +4676,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.5740644238566852</v>
+        <v>3.5878373118098899</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>90.227745038018114</v>
+        <v>90.575443477470969</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2440413563474654E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10041,11 +10041,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-2910332.1607371587</v>
+        <v>-2911820.6931484775</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.935005322090934</v>
+        <v>1.9354835443864729</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11133,11 +11133,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.5740644238566852</v>
+        <v>3.5878373118098899</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>386274.16073715896</v>
+        <v>387762.69314847747</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11845,17 +11845,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9386184497411175E-2</v>
+        <v>-1.9311765363064108E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1083065409410849E-2</v>
+        <v>1.1040520052752844E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1083065409410849E-2</v>
+        <v>1.1040520052752844E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11896,17 +11896,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2440413563474654E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2440413563474654E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2440413563474654E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11959,21 +11959,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1139525383659858</v>
+        <v>2.1606157127867216</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1139525383659858</v>
+        <v>2.1606157127867216</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,14 +11994,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.23131621747721887</v>
+        <v>0.23188877846085942</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.23131621747721887</v>
+        <v>0.23188877846085942</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12044,21 +12044,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1489687.6250954135</v>
+        <v>1151282.2979130957</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.3899581085664414</v>
+        <v>1.0742078663174899</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.3899581085664414</v>
+        <v>1.0742078663174899</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.6493235650823703</v>
+        <v>1.4286590046362797</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12068,14 +12068,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-386274.16073715896</v>
+        <v>-387762.69314847747</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.36041442031306575</v>
+        <v>-0.36180330054548604</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12163,23 +12163,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.12928004264363349</v>
+        <v>9.7996249953356721E-2</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.15209416781603941</v>
+        <v>0.11528970582747849</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.15209416781603941</v>
+        <v>0.11528970582747849</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.15209416781603941</v>
+        <v>0.11528970582747849</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.18047486002963625</v>
+        <v>0.15333128860519235</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12218,23 +12218,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.4640021321816746E-2</v>
+        <v>4.899812497667836E-2</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.6047083908019703E-2</v>
+        <v>5.7644852913739247E-2</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.6047083908019703E-2</v>
+        <v>5.7644852913739247E-2</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.6047083908019703E-2</v>
+        <v>5.7644852913739247E-2</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>9.0237430014818126E-2</v>
+        <v>7.6665644302596175E-2</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6BF0E3-FDBD-4E52-90A8-BCB674E722D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB5ACA9D-E545-478D-9DD6-D87EF21E505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2594,6 +2594,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2610,9 +2613,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2826,11 +2826,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3045,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3070,6 +3070,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4360,7 +4361,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4383,6 +4384,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4401,8 +4405,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4438,18 +4442,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0345.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4465,7 +4472,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>維他奶國際</v>
       </c>
@@ -4494,11 +4501,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>11167.63516672</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4521,11 +4528,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4593,10 +4600,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4643,7 +4650,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4784,10 +4791,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4806,11 +4813,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="312"/>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5792,15 +5799,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5828,7 +5836,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11955,7 +11963,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11966,14 +11974,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1606157127867216</v>
+        <v>2.406626412757487</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.1606157127867216</v>
+        <v>2.406626412757487</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11994,14 +12002,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.23188877846085942</v>
+        <v>0.25829195620640277</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.23188877846085942</v>
+        <v>0.25829195620640277</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12044,21 +12052,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1151282.2979130957</v>
+        <v>1282368.8961903292</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.0742078663174899</v>
+        <v>1.1965186629774021</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.0742078663174899</v>
+        <v>1.1965186629774021</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.4286590046362797</v>
+        <v>1.6341233011184422</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12163,23 +12171,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>9.7996249953356721E-2</v>
+        <v>0.10915423880943195</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.11528970582747849</v>
+        <v>0.12841675154050819</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.11528970582747849</v>
+        <v>0.12841675154050819</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.11528970582747849</v>
+        <v>0.12841675154050819</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.15333128860519235</v>
+        <v>0.17538281051471183</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12218,23 +12226,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>4.899812497667836E-2</v>
+        <v>5.4577119404715976E-2</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.7644852913739247E-2</v>
+        <v>6.4208375770254095E-2</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.7644852913739247E-2</v>
+        <v>6.4208375770254095E-2</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.7644852913739247E-2</v>
+        <v>6.4208375770254095E-2</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>7.6665644302596175E-2</v>
+        <v>8.7691405257355914E-2</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB5ACA9D-E545-478D-9DD6-D87EF21E505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C39E814-B79F-4C3F-8C69-B56C0AE20891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2594,31 +2594,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.2440413563474654E-3</v>
+        <v>1.248835350013544E-3</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4442,27 +4442,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0345.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.42</v>
+        <v>10.38</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4472,40 +4472,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>維他奶國際</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1071750016</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>11167.63516672</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>11124.76516608</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4528,11 +4528,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4683,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.5878373118098899</v>
+        <v>3.5740644238566852</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>90.575443477470969</v>
+        <v>90.227745038018114</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.2440413563474654E-3</v>
+        <v>1.248835350013544E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4791,10 +4791,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4813,11 +4813,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5800,15 +5800,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10049,11 +10049,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-2911820.6931484775</v>
+        <v>-2910332.1607371587</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.9354835443864729</v>
+        <v>1.935005322090934</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11141,11 +11141,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.5878373118098899</v>
+        <v>3.5740644238566852</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>387762.69314847747</v>
+        <v>386274.16073715896</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11181,7 +11181,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11192,11 +11192,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11208,11 +11208,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11853,17 +11853,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9311765363064108E-2</v>
+        <v>-1.9386184497411175E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1040520052752844E-2</v>
+        <v>1.1083065409410849E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1040520052752844E-2</v>
+        <v>1.1083065409410849E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11904,17 +11904,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2440413563474654E-3</v>
+        <v>1.248835350013544E-3</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2440413563474654E-3</v>
+        <v>1.248835350013544E-3</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2440413563474654E-3</v>
+        <v>1.248835350013544E-3</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11967,21 +11967,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.406626412757487</v>
+        <v>2.3807468457413092</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.406626412757487</v>
+        <v>2.3807468457413092</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12002,14 +12002,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.25829195620640277</v>
+        <v>0.25797597031184677</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.25829195620640277</v>
+        <v>0.25797597031184677</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12052,21 +12052,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1282368.8961903292</v>
+        <v>1458865.8388243031</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.1965186629774021</v>
+        <v>1.3611997359879704</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.1965186629774021</v>
+        <v>1.3611997359879704</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.6341233011184422</v>
+        <v>1.7466831581874829</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12076,14 +12076,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-387762.69314847747</v>
+        <v>-386274.16073715896</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.36180330054548604</v>
+        <v>-0.36041442031306575</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12171,23 +12171,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.10915423880943195</v>
+        <v>0.12537380856418884</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.12841675154050819</v>
+        <v>0.14749859831081041</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>0.12841675154050819</v>
+        <v>0.14749859831081041</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.12841675154050819</v>
+        <v>0.14749859831081041</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.17538281051471183</v>
+        <v>0.1892692973076143</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12226,23 +12226,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>5.4577119404715976E-2</v>
+        <v>6.2686904282094419E-2</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>6.4208375770254095E-2</v>
+        <v>7.3749299155405207E-2</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>6.4208375770254095E-2</v>
+        <v>7.3749299155405207E-2</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>6.4208375770254095E-2</v>
+        <v>7.3749299155405207E-2</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>8.7691405257355914E-2</v>
+        <v>9.4634648653807149E-2</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EBC1D4D-0B35-4CE4-A4C2-19492F7678F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA4C145-FF34-41E6-B6EB-90B2BE08970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2607,6 +2607,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2623,9 +2626,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2860030687639472E-3</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4476,27 +4476,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0345.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.38</v>
+        <v>10.08</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4506,7 +4506,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>維他奶國際</v>
       </c>
@@ -4535,11 +4535,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>11124.76516608</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>10803.24016128</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4562,11 +4562,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.5740644238566852</v>
+        <v>3.4707677642076478</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>90.227745038018114</v>
+        <v>87.620006742121632</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2860030687639472E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4825,10 +4825,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4847,11 +4847,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5834,15 +5834,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10185,11 +10185,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-2910332.1607371587</v>
+        <v>-2899168.1676522698</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.935005322090934</v>
+        <v>1.9314186548743941</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11277,11 +11277,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.5740644238566852</v>
+        <v>3.4707677642076478</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>386274.16073715896</v>
+        <v>375110.16765226994</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11989,17 +11989,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9386184497411175E-2</v>
+        <v>-1.9963154274119842E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1083065409410849E-2</v>
+        <v>1.1412918546595697E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1083065409410849E-2</v>
+        <v>1.1412918546595697E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12040,17 +12040,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2860030687639472E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2860030687639472E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.248835350013544E-3</v>
+        <v>1.2860030687639472E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12110,14 +12110,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4045543141987227</v>
+        <v>2.4076936724902676</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4045543141987227</v>
+        <v>2.4076936724902676</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12138,14 +12138,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.26055573001496524</v>
+        <v>0.26059442090179752</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.26055573001496524</v>
+        <v>0.26059442090179752</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12188,21 +12188,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1473454.4972125462</v>
+        <v>1475378.2223560058</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.3748117333478502</v>
+        <v>1.3766066716401204</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.3748117333478502</v>
+        <v>1.3766066716401204</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.7674192036065637</v>
+        <v>1.7697267256694733</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12212,14 +12212,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-386274.16073715896</v>
+        <v>-375110.16765226994</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.36041442031306575</v>
+        <v>-0.34999781856991358</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12307,23 +12307,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.12662754664983075</v>
+        <v>0.12664635004393376</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.14897358429391852</v>
+        <v>0.14899570593403974</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.14897358429391852</v>
+        <v>0.14899570593403974</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.14897358429391852</v>
+        <v>0.14899570593403974</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.19151623987817232</v>
+        <v>0.19154467883502521</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12362,23 +12362,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>6.3313773324915376E-2</v>
+        <v>6.3323175021966882E-2</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>7.448679214695926E-2</v>
+        <v>7.449785296701987E-2</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>7.448679214695926E-2</v>
+        <v>7.449785296701987E-2</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>7.448679214695926E-2</v>
+        <v>7.449785296701987E-2</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>9.5758119939086159E-2</v>
+        <v>9.5772339417512606E-2</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0345.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0345.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AA4C145-FF34-41E6-B6EB-90B2BE08970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF0A01A-0BAC-45F1-B425-690210926CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2607,31 +2607,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.2860030687639472E-3</v>
+        <v>1.3587956952977557E-3</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4476,27 +4476,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0345.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>10.08</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4506,40 +4506,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>維他奶國際</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1071750016</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>10803.24016128</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>10224.49515264</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4562,11 +4562,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>3.4707677642076478</v>
+        <v>3.2848337768393807</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>87.620006742121632</v>
+        <v>82.926077809507973</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.2860030687639472E-3</v>
+        <v>1.3587956952977557E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4825,10 +4825,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4847,11 +4847,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5834,15 +5834,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10185,11 +10185,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-2899168.1676522698</v>
+        <v>-2879072.9800994699</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.9314186548743941</v>
+        <v>1.9249626538846225</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11277,11 +11277,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>3.4707677642076478</v>
+        <v>3.2848337768393807</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>375110.16765226994</v>
+        <v>355014.98009946977</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11317,7 +11317,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11328,11 +11328,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11344,11 +11344,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11989,17 +11989,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.9963154274119842E-2</v>
+        <v>-2.1093144138692666E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1412918546595697E-2</v>
+        <v>1.2058932803950172E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.1412918546595697E-2</v>
+        <v>1.2058932803950172E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12040,17 +12040,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2860030687639472E-3</v>
+        <v>1.3587956952977557E-3</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2860030687639472E-3</v>
+        <v>1.3587956952977557E-3</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.2860030687639472E-3</v>
+        <v>1.3587956952977557E-3</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12110,14 +12110,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4076936724902676</v>
+        <v>2.4138509807799768</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>2.4076936724902676</v>
+        <v>2.4138509807799768</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12138,14 +12138,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.26059442090179752</v>
+        <v>0.26067020912207778</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>0.26059442090179752</v>
+        <v>0.26067020912207778</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12188,21 +12188,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1475378.2223560058</v>
+        <v>1479151.2764877521</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>1.3766066716401204</v>
+        <v>1.3801271326388787</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>1.3766066716401204</v>
+        <v>1.3801271326388787</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>1.7697267256694733</v>
+        <v>1.7742525310752806</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12212,14 +12212,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-375110.16765226994</v>
+        <v>-355014.98009946977</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.34999781856991358</v>
+        <v>-0.33124793543223963</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12307,23 +12307,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.12664635004393376</v>
+        <v>0.1266831823807183</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>0.14899570593403974</v>
+        <v>0.14903903809496272</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>0.14899570593403974</v>
+        <v>0.14903903809496272</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>0.14899570593403974</v>
+        <v>0.14903903809496272</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>0.19154467883502521</v>
+        <v>0.19160038543942151</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12362,23 +12362,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>6.3323175021966882E-2</v>
+        <v>6.3341591190359148E-2</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>7.449785296701987E-2</v>
+        <v>7.4519519047481358E-2</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>7.449785296701987E-2</v>
+        <v>7.4519519047481358E-2</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>7.449785296701987E-2</v>
+        <v>7.4519519047481358E-2</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>9.5772339417512606E-2</v>
+        <v>9.5800192719710756E-2</v>
       </c>
       <c r="K106" s="75"/>
     </row>
